--- a/config_10.26/shoping_config_xiaomi.xlsx
+++ b/config_10.26/shoping_config_xiaomi.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5731" uniqueCount="2008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5734" uniqueCount="2011">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7770,6 +7770,18 @@
   </si>
   <si>
     <t>79400000,8,27,27,2000000,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归礼遇</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,0</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -10774,13 +10786,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AIG724"/>
+  <dimension ref="A1:AIG725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X659" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X710" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A671" sqref="A671:XFD682"/>
+      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -65865,6 +65877,63 @@
         <v>1</v>
       </c>
     </row>
+    <row r="725" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A725" s="21">
+        <v>724</v>
+      </c>
+      <c r="B725" s="30">
+        <v>10641</v>
+      </c>
+      <c r="F725" s="30">
+        <v>1</v>
+      </c>
+      <c r="G725" s="30" t="s">
+        <v>2008</v>
+      </c>
+      <c r="M725" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N725" s="30">
+        <v>0</v>
+      </c>
+      <c r="O725" s="30">
+        <v>0</v>
+      </c>
+      <c r="P725" s="30" t="s">
+        <v>2009</v>
+      </c>
+      <c r="Q725" s="30">
+        <v>3000</v>
+      </c>
+      <c r="S725" s="54"/>
+      <c r="X725" s="30" t="s">
+        <v>2010</v>
+      </c>
+      <c r="Y725" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z725" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA725" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB725" s="30">
+        <v>14</v>
+      </c>
+      <c r="AI725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM725" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN725" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="H683:H688"/>

--- a/config_10.26/shoping_config_xiaomi.xlsx
+++ b/config_10.26/shoping_config_xiaomi.xlsx
@@ -8010,7 +8010,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8277,6 +8277,9 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10789,10 +10792,10 @@
   <dimension ref="A1:AIG725"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="X710" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="X662" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A725" sqref="A725:XFD725"/>
+      <selection pane="bottomRight" activeCell="Z674" sqref="Z674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -61049,7 +61052,7 @@
       <c r="G655" s="82" t="s">
         <v>1941</v>
       </c>
-      <c r="H655" s="92" t="s">
+      <c r="H655" s="93" t="s">
         <v>1942</v>
       </c>
       <c r="K655" s="82" t="s">
@@ -61117,7 +61120,7 @@
       <c r="G656" s="77" t="s">
         <v>1944</v>
       </c>
-      <c r="H656" s="93"/>
+      <c r="H656" s="94"/>
       <c r="K656" s="82" t="s">
         <v>1617</v>
       </c>
@@ -61183,7 +61186,7 @@
       <c r="G657" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H657" s="93"/>
+      <c r="H657" s="94"/>
       <c r="K657" s="82" t="s">
         <v>1618</v>
       </c>
@@ -61249,7 +61252,7 @@
       <c r="G658" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H658" s="93"/>
+      <c r="H658" s="94"/>
       <c r="K658" s="82" t="s">
         <v>1620</v>
       </c>
@@ -61315,7 +61318,7 @@
       <c r="G659" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H659" s="93"/>
+      <c r="H659" s="94"/>
       <c r="K659" s="82" t="s">
         <v>1621</v>
       </c>
@@ -61381,7 +61384,7 @@
       <c r="G660" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H660" s="93"/>
+      <c r="H660" s="94"/>
       <c r="K660" s="82" t="s">
         <v>1622</v>
       </c>
@@ -61447,7 +61450,7 @@
       <c r="G661" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H661" s="93"/>
+      <c r="H661" s="94"/>
       <c r="K661" s="82" t="s">
         <v>1624</v>
       </c>
@@ -62194,8 +62197,8 @@
       <c r="AA671" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB671" s="89">
-        <v>80</v>
+      <c r="AB671" s="90">
+        <v>76</v>
       </c>
       <c r="AI671" s="89">
         <v>1</v>
@@ -62265,8 +62268,8 @@
       <c r="AA672" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB672" s="89">
-        <v>80</v>
+      <c r="AB672" s="90">
+        <v>76</v>
       </c>
       <c r="AI672" s="89">
         <v>1</v>
@@ -62336,8 +62339,8 @@
       <c r="AA673" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB673" s="89">
-        <v>80</v>
+      <c r="AB673" s="90">
+        <v>76</v>
       </c>
       <c r="AI673" s="89">
         <v>1</v>
@@ -62407,8 +62410,8 @@
       <c r="AA674" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB674" s="89">
-        <v>81</v>
+      <c r="AB674" s="90">
+        <v>77</v>
       </c>
       <c r="AI674" s="89">
         <v>1</v>
@@ -62478,8 +62481,8 @@
       <c r="AA675" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB675" s="89">
-        <v>81</v>
+      <c r="AB675" s="90">
+        <v>77</v>
       </c>
       <c r="AI675" s="89">
         <v>1</v>
@@ -62549,8 +62552,8 @@
       <c r="AA676" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB676" s="89">
-        <v>81</v>
+      <c r="AB676" s="90">
+        <v>77</v>
       </c>
       <c r="AI676" s="89">
         <v>1</v>
@@ -62620,8 +62623,8 @@
       <c r="AA677" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB677" s="89">
-        <v>82</v>
+      <c r="AB677" s="90">
+        <v>78</v>
       </c>
       <c r="AI677" s="89">
         <v>1</v>
@@ -62691,8 +62694,8 @@
       <c r="AA678" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB678" s="89">
-        <v>82</v>
+      <c r="AB678" s="90">
+        <v>78</v>
       </c>
       <c r="AI678" s="89">
         <v>1</v>
@@ -62762,8 +62765,8 @@
       <c r="AA679" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB679" s="89">
-        <v>82</v>
+      <c r="AB679" s="90">
+        <v>78</v>
       </c>
       <c r="AI679" s="89">
         <v>1</v>
@@ -62833,8 +62836,8 @@
       <c r="AA680" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB680" s="89">
-        <v>83</v>
+      <c r="AB680" s="90">
+        <v>79</v>
       </c>
       <c r="AI680" s="89">
         <v>1</v>
@@ -62904,8 +62907,8 @@
       <c r="AA681" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB681" s="89">
-        <v>83</v>
+      <c r="AB681" s="90">
+        <v>79</v>
       </c>
       <c r="AI681" s="89">
         <v>1</v>
@@ -62975,8 +62978,8 @@
       <c r="AA682" s="89">
         <v>1635782399</v>
       </c>
-      <c r="AB682" s="89">
-        <v>83</v>
+      <c r="AB682" s="90">
+        <v>79</v>
       </c>
       <c r="AI682" s="89">
         <v>1</v>
@@ -63004,7 +63007,7 @@
       <c r="G683" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H683" s="90" t="s">
+      <c r="H683" s="91" t="s">
         <v>1891</v>
       </c>
       <c r="K683" s="75" t="s">
@@ -63072,7 +63075,7 @@
       <c r="G684" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H684" s="90"/>
+      <c r="H684" s="91"/>
       <c r="K684" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63138,7 +63141,7 @@
       <c r="G685" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H685" s="90"/>
+      <c r="H685" s="91"/>
       <c r="K685" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63204,7 +63207,7 @@
       <c r="G686" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H686" s="90"/>
+      <c r="H686" s="91"/>
       <c r="K686" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63270,7 +63273,7 @@
       <c r="G687" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H687" s="90"/>
+      <c r="H687" s="91"/>
       <c r="K687" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63336,7 +63339,7 @@
       <c r="G688" s="75" t="s">
         <v>1655</v>
       </c>
-      <c r="H688" s="90"/>
+      <c r="H688" s="91"/>
       <c r="K688" s="75" t="s">
         <v>1592</v>
       </c>
@@ -63402,7 +63405,7 @@
       <c r="G689" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H689" s="90" t="s">
+      <c r="H689" s="91" t="s">
         <v>1892</v>
       </c>
       <c r="K689" s="75" t="s">
@@ -63470,7 +63473,7 @@
       <c r="G690" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H690" s="91"/>
+      <c r="H690" s="92"/>
       <c r="K690" s="75" t="s">
         <v>1584</v>
       </c>
@@ -63536,7 +63539,7 @@
       <c r="G691" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H691" s="91"/>
+      <c r="H691" s="92"/>
       <c r="K691" s="75" t="s">
         <v>1586</v>
       </c>
@@ -63602,7 +63605,7 @@
       <c r="G692" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H692" s="91"/>
+      <c r="H692" s="92"/>
       <c r="K692" s="75" t="s">
         <v>1588</v>
       </c>
@@ -63668,7 +63671,7 @@
       <c r="G693" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H693" s="91"/>
+      <c r="H693" s="92"/>
       <c r="K693" s="75" t="s">
         <v>1590</v>
       </c>
@@ -63734,7 +63737,7 @@
       <c r="G694" s="75" t="s">
         <v>1657</v>
       </c>
-      <c r="H694" s="91"/>
+      <c r="H694" s="92"/>
       <c r="K694" s="75" t="s">
         <v>1592</v>
       </c>
@@ -64031,7 +64034,7 @@
       <c r="G698" s="82" t="s">
         <v>1940</v>
       </c>
-      <c r="H698" s="92" t="s">
+      <c r="H698" s="93" t="s">
         <v>1950</v>
       </c>
       <c r="K698" s="82" t="s">
@@ -64099,7 +64102,7 @@
       <c r="G699" s="77" t="s">
         <v>1943</v>
       </c>
-      <c r="H699" s="93"/>
+      <c r="H699" s="94"/>
       <c r="K699" s="82" t="s">
         <v>1617</v>
       </c>
@@ -64165,7 +64168,7 @@
       <c r="G700" s="77" t="s">
         <v>1945</v>
       </c>
-      <c r="H700" s="93"/>
+      <c r="H700" s="94"/>
       <c r="K700" s="82" t="s">
         <v>1618</v>
       </c>
@@ -64231,7 +64234,7 @@
       <c r="G701" s="77" t="s">
         <v>1946</v>
       </c>
-      <c r="H701" s="93"/>
+      <c r="H701" s="94"/>
       <c r="K701" s="82" t="s">
         <v>1620</v>
       </c>
@@ -64297,7 +64300,7 @@
       <c r="G702" s="77" t="s">
         <v>1947</v>
       </c>
-      <c r="H702" s="93"/>
+      <c r="H702" s="94"/>
       <c r="K702" s="82" t="s">
         <v>1621</v>
       </c>
@@ -64363,7 +64366,7 @@
       <c r="G703" s="77" t="s">
         <v>1948</v>
       </c>
-      <c r="H703" s="93"/>
+      <c r="H703" s="94"/>
       <c r="K703" s="82" t="s">
         <v>1622</v>
       </c>
@@ -64429,7 +64432,7 @@
       <c r="G704" s="77" t="s">
         <v>1949</v>
       </c>
-      <c r="H704" s="93"/>
+      <c r="H704" s="94"/>
       <c r="K704" s="82" t="s">
         <v>1624</v>
       </c>
@@ -64784,7 +64787,7 @@
       <c r="G709" s="87" t="s">
         <v>1962</v>
       </c>
-      <c r="H709" s="94" t="s">
+      <c r="H709" s="95" t="s">
         <v>1963</v>
       </c>
       <c r="J709" s="87" t="s">
@@ -64855,7 +64858,7 @@
       <c r="G710" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H710" s="94"/>
+      <c r="H710" s="95"/>
       <c r="J710" s="87" t="s">
         <v>1547</v>
       </c>
@@ -64924,7 +64927,7 @@
       <c r="G711" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H711" s="94"/>
+      <c r="H711" s="95"/>
       <c r="J711" s="87" t="s">
         <v>1547</v>
       </c>
@@ -64993,7 +64996,7 @@
       <c r="G712" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H712" s="94"/>
+      <c r="H712" s="95"/>
       <c r="J712" s="87" t="s">
         <v>1547</v>
       </c>
@@ -65062,7 +65065,7 @@
       <c r="G713" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H713" s="94"/>
+      <c r="H713" s="95"/>
       <c r="J713" s="87" t="s">
         <v>1554</v>
       </c>
@@ -65131,7 +65134,7 @@
       <c r="G714" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H714" s="94"/>
+      <c r="H714" s="95"/>
       <c r="J714" s="87" t="s">
         <v>1554</v>
       </c>
@@ -65200,7 +65203,7 @@
       <c r="G715" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H715" s="94"/>
+      <c r="H715" s="95"/>
       <c r="J715" s="87" t="s">
         <v>1554</v>
       </c>
@@ -65269,7 +65272,7 @@
       <c r="G716" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H716" s="94"/>
+      <c r="H716" s="95"/>
       <c r="J716" s="87" t="s">
         <v>1554</v>
       </c>
@@ -65338,7 +65341,7 @@
       <c r="G717" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H717" s="94"/>
+      <c r="H717" s="95"/>
       <c r="J717" s="87" t="s">
         <v>1561</v>
       </c>
@@ -65407,7 +65410,7 @@
       <c r="G718" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H718" s="94"/>
+      <c r="H718" s="95"/>
       <c r="J718" s="87" t="s">
         <v>1561</v>
       </c>
@@ -65476,7 +65479,7 @@
       <c r="G719" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H719" s="94"/>
+      <c r="H719" s="95"/>
       <c r="J719" s="87" t="s">
         <v>1561</v>
       </c>
@@ -65545,7 +65548,7 @@
       <c r="G720" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H720" s="94"/>
+      <c r="H720" s="95"/>
       <c r="J720" s="87" t="s">
         <v>1561</v>
       </c>
@@ -65614,7 +65617,7 @@
       <c r="G721" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H721" s="94"/>
+      <c r="H721" s="95"/>
       <c r="J721" s="87" t="s">
         <v>1450</v>
       </c>
@@ -65683,7 +65686,7 @@
       <c r="G722" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H722" s="94"/>
+      <c r="H722" s="95"/>
       <c r="J722" s="87" t="s">
         <v>1450</v>
       </c>
@@ -65752,7 +65755,7 @@
       <c r="G723" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H723" s="94"/>
+      <c r="H723" s="95"/>
       <c r="J723" s="87" t="s">
         <v>1450</v>
       </c>
@@ -65821,7 +65824,7 @@
       <c r="G724" s="87" t="s">
         <v>1961</v>
       </c>
-      <c r="H724" s="94"/>
+      <c r="H724" s="95"/>
       <c r="J724" s="87" t="s">
         <v>1450</v>
       </c>
